--- a/nar2025web.xlsx
+++ b/nar2025web.xlsx
@@ -2367,8 +2367,8 @@
   <sheetPr/>
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2407,7 +2407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="108" spans="1:4">
+    <row r="3" ht="27" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="135" spans="1:4">
+    <row r="4" ht="27" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="121.5" spans="1:4">
+    <row r="6" ht="27" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" ht="67.5" spans="1:4">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="94.5" spans="1:4">
+    <row r="17" ht="27" spans="1:4">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" ht="108" spans="1:4">
+    <row r="18" ht="27" spans="1:4">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" ht="94.5" spans="1:4">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" ht="94.5" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" ht="162" spans="1:4">
+    <row r="28" ht="27" spans="1:4">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" ht="108" spans="1:4">
+    <row r="38" ht="27" spans="1:4">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" ht="67.5" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" ht="135" spans="1:4">
+    <row r="55" ht="27" spans="1:4">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" ht="108" spans="1:4">
+    <row r="57" ht="27" spans="1:4">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" ht="121.5" spans="1:4">
+    <row r="62" ht="27" spans="1:4">
       <c r="A62" t="s">
         <v>179</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" ht="108" spans="1:4">
+    <row r="71" ht="27" spans="1:4">
       <c r="A71" t="s">
         <v>207</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" ht="40.5" spans="1:4">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>207</v>
       </c>

--- a/nar2025web.xlsx
+++ b/nar2025web.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="466">
   <si>
     <t>category</t>
   </si>
@@ -1407,6 +1407,726 @@
       </rPr>
       <t>Genetic linkage maps</t>
     </r>
+  </si>
+  <si>
+    <t>3D-GNOME 3.0</t>
+  </si>
+  <si>
+    <t>https://3dgnome.mini.pw.edu.pl/</t>
+  </si>
+  <si>
+    <t>Analyse 3D genome organization</t>
+  </si>
+  <si>
+    <t>αCharges</t>
+  </si>
+  <si>
+    <t>https://alphacharges.ncbr.muni.cz/</t>
+  </si>
+  <si>
+    <t>Calculation of partial atomic charges in protein structures</t>
+  </si>
+  <si>
+    <t>Abalign</t>
+  </si>
+  <si>
+    <t>http://cao.labshare.cn/abalign/</t>
+  </si>
+  <si>
+    <t>Multiple sequence alignment for B-cell receptor immune repertoires</t>
+  </si>
+  <si>
+    <t>ACFIS 2.0</t>
+  </si>
+  <si>
+    <t>http://chemyang.ccnu.edu.cn/ccb/server/ACFIS2/</t>
+  </si>
+  <si>
+    <t>Fragment-based drug design</t>
+  </si>
+  <si>
+    <t>AlloReverse</t>
+  </si>
+  <si>
+    <t>http://www.allostery.net/AlloReverse/</t>
+  </si>
+  <si>
+    <t>Multiscale analysis of multiple allosteric regulations</t>
+  </si>
+  <si>
+    <t>AnnotSV 2023</t>
+  </si>
+  <si>
+    <t>https://www.lbgi.fr/AnnotSV/</t>
+  </si>
+  <si>
+    <t>Annotation and ranking of human structural variants</t>
+  </si>
+  <si>
+    <t>antiSMASH 7.0</t>
+  </si>
+  <si>
+    <t>Secondary/specialized metabolite genome mining</t>
+  </si>
+  <si>
+    <t>ARMADiLLO</t>
+  </si>
+  <si>
+    <t>https://armadillo.dhvi.duke.edu</t>
+  </si>
+  <si>
+    <t>Analysis of antibody mutation probabilities</t>
+  </si>
+  <si>
+    <t>Breeze 2.0</t>
+  </si>
+  <si>
+    <t>https://breeze.fimm.fi/v2/</t>
+  </si>
+  <si>
+    <t>Visual analysis and comparison of drug-response data</t>
+  </si>
+  <si>
+    <t>CAID</t>
+  </si>
+  <si>
+    <t>https://caid.idpcentral.org/submit</t>
+  </si>
+  <si>
+    <t>Intrinsic disorder and binding regions in proteins</t>
+  </si>
+  <si>
+    <t>CAVE</t>
+  </si>
+  <si>
+    <t>https://cave.biodesign.ac.cn/</t>
+  </si>
+  <si>
+    <t>Analysis and visualization of metabolic pathways</t>
+  </si>
+  <si>
+    <t>ChemMaps.com v2.0</t>
+  </si>
+  <si>
+    <t>https://sandbox.ntp.niehs.nih.gov/chemmaps/</t>
+  </si>
+  <si>
+    <t>Exploring the environmental chemical universe</t>
+  </si>
+  <si>
+    <t>ChroKit</t>
+  </si>
+  <si>
+    <t>https://github.com/ocroci/ChroKit</t>
+  </si>
+  <si>
+    <t>Exploration and multidimensional analysis of heterogeneous genomic data (stand-alone)</t>
+  </si>
+  <si>
+    <t>CRISPRimmunity</t>
+  </si>
+  <si>
+    <t>http://www.microbiome-bigdata.com/CRISPRimmunity</t>
+  </si>
+  <si>
+    <t>Acr prediction for CRISPR/Cas</t>
+  </si>
+  <si>
+    <t>CUPP 2.0</t>
+  </si>
+  <si>
+    <t>https://cupp.info/</t>
+  </si>
+  <si>
+    <t>Search for similarities between carbohydrate-processing enzymes.</t>
+  </si>
+  <si>
+    <t>dbCAN3</t>
+  </si>
+  <si>
+    <t>https://bcb.unl.edu/dbCAN2/</t>
+  </si>
+  <si>
+    <t>Carbohydrate-active enzyme and substrate annotation</t>
+  </si>
+  <si>
+    <t>DDMut</t>
+  </si>
+  <si>
+    <t>https://biosig.lab.uq.edu.au/ddmut</t>
+  </si>
+  <si>
+    <t>Predicting variant effects on protein stability</t>
+  </si>
+  <si>
+    <t>DeepAlloDriver</t>
+  </si>
+  <si>
+    <t>https://mdl.shsmu.edu.cn/DeepAlloDriver</t>
+  </si>
+  <si>
+    <t>Prediction of cancer driver mutations</t>
+  </si>
+  <si>
+    <t>DeepNeo</t>
+  </si>
+  <si>
+    <t>https://deepneo.net</t>
+  </si>
+  <si>
+    <t>Prediction of immunogenic neoantigens</t>
+  </si>
+  <si>
+    <t>DEPICTER2</t>
+  </si>
+  <si>
+    <t>http://biomine.cs.vcu.edu/servers/DEPICTER2/</t>
+  </si>
+  <si>
+    <t>Prediction of intrinsic disorder</t>
+  </si>
+  <si>
+    <t>DIANA-microT 2023</t>
+  </si>
+  <si>
+    <t>http://www.microrna.gr/microt_webserver/</t>
+  </si>
+  <si>
+    <t>miRNA target prediction</t>
+  </si>
+  <si>
+    <t>DIANA-miRPath v4.0</t>
+  </si>
+  <si>
+    <t>http://www.microrna.gr/miRPathv4</t>
+  </si>
+  <si>
+    <t>Online miRNA analysis</t>
+  </si>
+  <si>
+    <t>e-RNA</t>
+  </si>
+  <si>
+    <t>http://www.e-rna.org</t>
+  </si>
+  <si>
+    <t>Prediction and visualization of RNA secondary structures</t>
+  </si>
+  <si>
+    <t>Enrichr-KG</t>
+  </si>
+  <si>
+    <t>https://maayanlab.cloud/enrichr-kg</t>
+  </si>
+  <si>
+    <t>Gene set enrichment analysis</t>
+  </si>
+  <si>
+    <t>FLUXestimator</t>
+  </si>
+  <si>
+    <t>http://scflux.org/</t>
+  </si>
+  <si>
+    <t>Study the metabolic fluxome</t>
+  </si>
+  <si>
+    <t>FunARTS</t>
+  </si>
+  <si>
+    <t>https://funarts.ziemertlab.com</t>
+  </si>
+  <si>
+    <t>Identification of fungal bioactive compounds</t>
+  </si>
+  <si>
+    <t>FuzPred</t>
+  </si>
+  <si>
+    <t>https://fuzpred.bio.unipd.it</t>
+  </si>
+  <si>
+    <t>Prediction of context-dependent protein-protein interactions</t>
+  </si>
+  <si>
+    <t>g:Profiler 2023</t>
+  </si>
+  <si>
+    <t>https://biit.cs.ut.ee/gprofiler</t>
+  </si>
+  <si>
+    <t>Functional enrichment analysis</t>
+  </si>
+  <si>
+    <t>GeneRanger and TargetRanger</t>
+  </si>
+  <si>
+    <t>https://generanger.maayanlab.cloud/https://targetranger.maayanlab.cloud/</t>
+  </si>
+  <si>
+    <t>Finding differentially expressed genes and proteins</t>
+  </si>
+  <si>
+    <t>Genome Context Viewer version 2</t>
+  </si>
+  <si>
+    <t>https://gcv.legumeinfo.org/</t>
+  </si>
+  <si>
+    <t>Visual comparison of different genomes</t>
+  </si>
+  <si>
+    <t>GenomeFLTR</t>
+  </si>
+  <si>
+    <t>https://genomefltr.tau.ac.il/</t>
+  </si>
+  <si>
+    <t>Removing contaminations from NGS reads</t>
+  </si>
+  <si>
+    <t>GePI</t>
+  </si>
+  <si>
+    <t>https://gepi.coling.uni-jena.de/</t>
+  </si>
+  <si>
+    <t>Text-mining for molecular interactions</t>
+  </si>
+  <si>
+    <t>GPS 6.0</t>
+  </si>
+  <si>
+    <t>https://gps.biocuckoo.cn</t>
+  </si>
+  <si>
+    <t>Prediction of kinase-specific phosphorylation sites in proteins</t>
+  </si>
+  <si>
+    <t>GS-SMD</t>
+  </si>
+  <si>
+    <t>https://gs-smd.biomodellab.eu/</t>
+  </si>
+  <si>
+    <t>Molecular dynamics simulations for γ-secretase</t>
+  </si>
+  <si>
+    <t>Haplogrep 3</t>
+  </si>
+  <si>
+    <t>https://haplogrep.i-med.ac.at</t>
+  </si>
+  <si>
+    <t>Human mitochondrial haplogroups</t>
+  </si>
+  <si>
+    <t>Human AGEs</t>
+  </si>
+  <si>
+    <t>https://archeogenomics.eu/</t>
+  </si>
+  <si>
+    <t>Human archeogenomics</t>
+  </si>
+  <si>
+    <t>IntFOLD7, MultiFOLD and ModFOLDdock</t>
+  </si>
+  <si>
+    <t>https://www.reading.ac.uk/bioinf/</t>
+  </si>
+  <si>
+    <t>Prediction of protein structures, functions and interactions</t>
+  </si>
+  <si>
+    <t>IRSOM2</t>
+  </si>
+  <si>
+    <t>https://evryrna.ibisc.univ-evry.fr/</t>
+  </si>
+  <si>
+    <t>Prediction of bifunctional RNAs</t>
+  </si>
+  <si>
+    <t>KVFinder-web</t>
+  </si>
+  <si>
+    <t>https://kvfinder-web.cnpem.br</t>
+  </si>
+  <si>
+    <t>Detection and characterization of biomolecular cavities</t>
+  </si>
+  <si>
+    <t>The LightDock Server</t>
+  </si>
+  <si>
+    <t>https://server.lightdock.org/</t>
+  </si>
+  <si>
+    <t>A macromolecular docking framework</t>
+  </si>
+  <si>
+    <t>MBROLE3</t>
+  </si>
+  <si>
+    <t>http://csbg.cnb.csic.es/mbrole3</t>
+  </si>
+  <si>
+    <t>Functional enrichment analysis of chemical compounds</t>
+  </si>
+  <si>
+    <t>MicrobiomeAnalyst 2.0</t>
+  </si>
+  <si>
+    <t>http://www.microbiomeanalyst.ca/</t>
+  </si>
+  <si>
+    <t>Analysis of microbiome data</t>
+  </si>
+  <si>
+    <t>miEAA 2023</t>
+  </si>
+  <si>
+    <t>https://ccb-compute2.cs.uni-saarland.de/mieaa</t>
+  </si>
+  <si>
+    <t>miRNA enrichment analysis and annotation</t>
+  </si>
+  <si>
+    <t>Mol*VS</t>
+  </si>
+  <si>
+    <t>https://molstarvolseg.ncbr.muni.cz/</t>
+  </si>
+  <si>
+    <t>Visualization of volumetric and segmentation imaging data</t>
+  </si>
+  <si>
+    <t>MpoxRadar</t>
+  </si>
+  <si>
+    <t>https://mpoxradar.net</t>
+  </si>
+  <si>
+    <t>Monkeypox genomic surveillance dashboard</t>
+  </si>
+  <si>
+    <t>MS2PIP</t>
+  </si>
+  <si>
+    <t>https://iomics.ugent.be/ms2pip/</t>
+  </si>
+  <si>
+    <t>Peptide spectrum predictor for proteomics</t>
+  </si>
+  <si>
+    <t>MULocDeep</t>
+  </si>
+  <si>
+    <t>https://www.mu-loc.org/</t>
+  </si>
+  <si>
+    <t>Protein localization prediction at sub-organellar level</t>
+  </si>
+  <si>
+    <t>MyGeneset.info</t>
+  </si>
+  <si>
+    <t>https://mygeneset.info/</t>
+  </si>
+  <si>
+    <t>Sharing and user-created collections of genes</t>
+  </si>
+  <si>
+    <t>NBBC</t>
+  </si>
+  <si>
+    <t>https://kowalski-labapps.dellmed.utexas.edu/NBBC/</t>
+  </si>
+  <si>
+    <t>Explore non-B DNA motifs in cancer</t>
+  </si>
+  <si>
+    <t>nCoVDock2</t>
+  </si>
+  <si>
+    <t>https://ncovdock2.schanglab.org.cn</t>
+  </si>
+  <si>
+    <t>Prediction of binding modes between COVID-19 targets and potential ligands</t>
+  </si>
+  <si>
+    <t>NormSeq</t>
+  </si>
+  <si>
+    <t>https://arn.ugr.es/normSeq</t>
+  </si>
+  <si>
+    <t>Normalization and differential expression analysis of RNA-seq data</t>
+  </si>
+  <si>
+    <t>OnTarget</t>
+  </si>
+  <si>
+    <t>http://ontarget.cmmt.ubc.ca/</t>
+  </si>
+  <si>
+    <t>Design of mini promoters</t>
+  </si>
+  <si>
+    <t>OpenXGR</t>
+  </si>
+  <si>
+    <t>http://www.openxgr.com</t>
+  </si>
+  <si>
+    <t>Enrichment and subnetwork analyses for genes, variants, or genomic regions</t>
+  </si>
+  <si>
+    <t>OrthoVenn3</t>
+  </si>
+  <si>
+    <t>https://orthovenn3.bioinfotoolkits.net</t>
+  </si>
+  <si>
+    <t>Exploration of orthologous data across genomes</t>
+  </si>
+  <si>
+    <t>PAE Viewer</t>
+  </si>
+  <si>
+    <t>http://www.subtiwiki.uni-goettingen.de/v4/paeViewerDemo</t>
+  </si>
+  <si>
+    <t>Estimate the reliability of structure predictions generated by Alphafold-Multimer</t>
+  </si>
+  <si>
+    <t>PanDrugs2</t>
+  </si>
+  <si>
+    <t>https://www.pandrugs.org/</t>
+  </si>
+  <si>
+    <t>Prioritizing cancer therapies using individual multi-omics data.</t>
+  </si>
+  <si>
+    <t>PANGEA</t>
+  </si>
+  <si>
+    <t>https://www.flyrnai.org/tools/pangea/</t>
+  </si>
+  <si>
+    <t>Gene set enrichment analysis for model organisms.</t>
+  </si>
+  <si>
+    <t>PASSer</t>
+  </si>
+  <si>
+    <t>https://passer.smu.edu</t>
+  </si>
+  <si>
+    <t>Prediction of protein allosteric sites</t>
+  </si>
+  <si>
+    <t>PEP-FOLD4</t>
+  </si>
+  <si>
+    <t>http://bioserv.rpbs.univ-paris-diderot.fr/services/PEP-FOLD4</t>
+  </si>
+  <si>
+    <t>Structure prediction of short peptides considering pH and salt concentration</t>
+  </si>
+  <si>
+    <t>Pest Alert Tool</t>
+  </si>
+  <si>
+    <t>https://pest-alert-tool-prod.azurewebsites.net/</t>
+  </si>
+  <si>
+    <t>Search for marine non-indigenous species in New Zealand using NGS data</t>
+  </si>
+  <si>
+    <t>PHASTEST</t>
+  </si>
+  <si>
+    <t>https://phastest.ca</t>
+  </si>
+  <si>
+    <t>Identification, annotation and visualization of prophage sequences within bacterial genomes and plasmids</t>
+  </si>
+  <si>
+    <t>PhD-SNPg</t>
+  </si>
+  <si>
+    <t>http://snps.biofold.org/phd-snpg</t>
+  </si>
+  <si>
+    <t>Study the functional impact of short DNA variants</t>
+  </si>
+  <si>
+    <t>PlasMapper 3.0</t>
+  </si>
+  <si>
+    <t>https://plasmapper.ca</t>
+  </si>
+  <si>
+    <t>Generating and editing plasmid maps</t>
+  </si>
+  <si>
+    <t>PrismNet</t>
+  </si>
+  <si>
+    <t>http://prismnetweb.zhanglab.net/</t>
+  </si>
+  <si>
+    <t>Predicting protein RNA interaction</t>
+  </si>
+  <si>
+    <t>ProAct</t>
+  </si>
+  <si>
+    <t>https://netbio.bgu.ac.il/ProAct/</t>
+  </si>
+  <si>
+    <t>Quantification of differential biological process activity</t>
+  </si>
+  <si>
+    <t>Proksee</t>
+  </si>
+  <si>
+    <t>https://proksee.ca</t>
+  </si>
+  <si>
+    <t>Characterization and visualization of bacterial genomes</t>
+  </si>
+  <si>
+    <t>ResFinderFG v2.0</t>
+  </si>
+  <si>
+    <t>https://cge.food.dtu.dk/services/ResFinderFG/</t>
+  </si>
+  <si>
+    <t>Search for antibiotic resistance genes</t>
+  </si>
+  <si>
+    <t>RNAcanvas</t>
+  </si>
+  <si>
+    <t>https://rnacanvas.app</t>
+  </si>
+  <si>
+    <t>Interactive drawing of nucleic acid structures</t>
+  </si>
+  <si>
+    <t>RNAincoder</t>
+  </si>
+  <si>
+    <t>https://idrblab.org/rnaincoder/</t>
+  </si>
+  <si>
+    <t>Prediction of RNA-associated interactions</t>
+  </si>
+  <si>
+    <t>SEanalysis 2.0</t>
+  </si>
+  <si>
+    <t>http://licpathway.net/SEanalysis</t>
+  </si>
+  <si>
+    <t>Analysis of super enhancers</t>
+  </si>
+  <si>
+    <t>SEPPA-mAb</t>
+  </si>
+  <si>
+    <t>http://www.badd-cao.net/seppa-mab/</t>
+  </si>
+  <si>
+    <t>Spatial epitope prediction of protein antigens for monoclonal antibodies</t>
+  </si>
+  <si>
+    <t>sfkit</t>
+  </si>
+  <si>
+    <t>https://sfkit.org</t>
+  </si>
+  <si>
+    <t>Secure and federated genomic data analysis</t>
+  </si>
+  <si>
+    <t>SH2db</t>
+  </si>
+  <si>
+    <t>http://sh2db.ttk.hu/</t>
+  </si>
+  <si>
+    <t>Information system for Src Homology 2 (SH2) domains</t>
+  </si>
+  <si>
+    <t>SMDB</t>
+  </si>
+  <si>
+    <t>https://www.biosino.org/smdb</t>
+  </si>
+  <si>
+    <t>Interactive exploration of spatial transcriptomics data</t>
+  </si>
+  <si>
+    <t>STellaris</t>
+  </si>
+  <si>
+    <t>https://spatial.rhesusbase.com</t>
+  </si>
+  <si>
+    <t>TCRmodel2</t>
+  </si>
+  <si>
+    <t>https://tcrmodel.ibbr.umd.edu.</t>
+  </si>
+  <si>
+    <t>High-resolution modelling of T cell receptor recognition</t>
+  </si>
+  <si>
+    <t>TransCRISPR</t>
+  </si>
+  <si>
+    <t>https://transcrispr.igcz.poznan.pl/transcrispr/</t>
+  </si>
+  <si>
+    <t>Design optimal single guide RNAs for CRISPR/Cas9</t>
+  </si>
+  <si>
+    <t>tvBOT</t>
+  </si>
+  <si>
+    <t>https://www.chiplot.online/tvbot.html</t>
+  </si>
+  <si>
+    <t>Visualization, annotation, and modification of phylogenetic trees.</t>
+  </si>
+  <si>
+    <t>vissE.cloud</t>
+  </si>
+  <si>
+    <t>https://www.visse.cloud/</t>
+  </si>
+  <si>
+    <t>WebQUAST</t>
+  </si>
+  <si>
+    <t>http://cab.cc.spbu.ru/quast/</t>
+  </si>
+  <si>
+    <t>Evaluation and comparison of genome assemblies</t>
+  </si>
+  <si>
+    <t>WebTetrado</t>
+  </si>
+  <si>
+    <t>https://webtetrado.cs.put.poznan.pl/</t>
+  </si>
+  <si>
+    <t>Explore quadruplexes in nucleic acid 3D structures</t>
   </si>
 </sst>
 </file>
@@ -2365,10 +3085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A74" sqref="$A74:$XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3399,6 +4119,897 @@
       </c>
       <c r="D73" s="3" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" t="s">
+        <v>233</v>
+      </c>
+      <c r="D76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" t="s">
+        <v>262</v>
+      </c>
+      <c r="D86" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" t="s">
+        <v>274</v>
+      </c>
+      <c r="D90" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
+        <v>276</v>
+      </c>
+      <c r="C91" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" t="s">
+        <v>283</v>
+      </c>
+      <c r="D93" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" t="s">
+        <v>286</v>
+      </c>
+      <c r="D94" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" t="s">
+        <v>289</v>
+      </c>
+      <c r="D95" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" t="s">
+        <v>292</v>
+      </c>
+      <c r="D96" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>294</v>
+      </c>
+      <c r="C97" t="s">
+        <v>295</v>
+      </c>
+      <c r="D97" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" t="s">
+        <v>298</v>
+      </c>
+      <c r="D98" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99" t="s">
+        <v>301</v>
+      </c>
+      <c r="D99" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>303</v>
+      </c>
+      <c r="C100" t="s">
+        <v>304</v>
+      </c>
+      <c r="D100" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" t="s">
+        <v>307</v>
+      </c>
+      <c r="D101" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>309</v>
+      </c>
+      <c r="C102" t="s">
+        <v>310</v>
+      </c>
+      <c r="D102" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" t="s">
+        <v>312</v>
+      </c>
+      <c r="C103" t="s">
+        <v>313</v>
+      </c>
+      <c r="D103" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>315</v>
+      </c>
+      <c r="C104" t="s">
+        <v>316</v>
+      </c>
+      <c r="D104" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" t="s">
+        <v>318</v>
+      </c>
+      <c r="C105" t="s">
+        <v>319</v>
+      </c>
+      <c r="D105" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" t="s">
+        <v>321</v>
+      </c>
+      <c r="C106" t="s">
+        <v>322</v>
+      </c>
+      <c r="D106" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" t="s">
+        <v>324</v>
+      </c>
+      <c r="C107" t="s">
+        <v>325</v>
+      </c>
+      <c r="D107" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" t="s">
+        <v>327</v>
+      </c>
+      <c r="C108" t="s">
+        <v>328</v>
+      </c>
+      <c r="D108" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" t="s">
+        <v>330</v>
+      </c>
+      <c r="C109" t="s">
+        <v>331</v>
+      </c>
+      <c r="D109" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" t="s">
+        <v>333</v>
+      </c>
+      <c r="C110" t="s">
+        <v>334</v>
+      </c>
+      <c r="D110" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" t="s">
+        <v>336</v>
+      </c>
+      <c r="C111" t="s">
+        <v>337</v>
+      </c>
+      <c r="D111" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" t="s">
+        <v>339</v>
+      </c>
+      <c r="C112" t="s">
+        <v>340</v>
+      </c>
+      <c r="D112" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
+        <v>342</v>
+      </c>
+      <c r="C113" t="s">
+        <v>343</v>
+      </c>
+      <c r="D113" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" t="s">
+        <v>345</v>
+      </c>
+      <c r="C114" t="s">
+        <v>346</v>
+      </c>
+      <c r="D114" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" t="s">
+        <v>349</v>
+      </c>
+      <c r="D115" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>351</v>
+      </c>
+      <c r="C116" t="s">
+        <v>352</v>
+      </c>
+      <c r="D116" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
+        <v>354</v>
+      </c>
+      <c r="C117" t="s">
+        <v>355</v>
+      </c>
+      <c r="D117" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" t="s">
+        <v>358</v>
+      </c>
+      <c r="D118" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" t="s">
+        <v>361</v>
+      </c>
+      <c r="D119" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>363</v>
+      </c>
+      <c r="C120" t="s">
+        <v>364</v>
+      </c>
+      <c r="D120" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" t="s">
+        <v>366</v>
+      </c>
+      <c r="C121" t="s">
+        <v>367</v>
+      </c>
+      <c r="D121" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
+        <v>369</v>
+      </c>
+      <c r="C122" t="s">
+        <v>370</v>
+      </c>
+      <c r="D122" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" t="s">
+        <v>373</v>
+      </c>
+      <c r="D123" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
+        <v>375</v>
+      </c>
+      <c r="C124" t="s">
+        <v>376</v>
+      </c>
+      <c r="D124" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
+        <v>378</v>
+      </c>
+      <c r="C125" t="s">
+        <v>379</v>
+      </c>
+      <c r="D125" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
+        <v>381</v>
+      </c>
+      <c r="C126" t="s">
+        <v>382</v>
+      </c>
+      <c r="D126" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
+        <v>384</v>
+      </c>
+      <c r="C127" t="s">
+        <v>385</v>
+      </c>
+      <c r="D127" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" t="s">
+        <v>387</v>
+      </c>
+      <c r="C128" t="s">
+        <v>388</v>
+      </c>
+      <c r="D128" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" t="s">
+        <v>391</v>
+      </c>
+      <c r="D129" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" t="s">
+        <v>394</v>
+      </c>
+      <c r="D130" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
+        <v>396</v>
+      </c>
+      <c r="C131" t="s">
+        <v>397</v>
+      </c>
+      <c r="D131" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" t="s">
+        <v>399</v>
+      </c>
+      <c r="C132" t="s">
+        <v>400</v>
+      </c>
+      <c r="D132" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" t="s">
+        <v>402</v>
+      </c>
+      <c r="C133" t="s">
+        <v>403</v>
+      </c>
+      <c r="D133" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" t="s">
+        <v>405</v>
+      </c>
+      <c r="C134" t="s">
+        <v>406</v>
+      </c>
+      <c r="D134" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" t="s">
+        <v>408</v>
+      </c>
+      <c r="C135" t="s">
+        <v>409</v>
+      </c>
+      <c r="D135" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" t="s">
+        <v>411</v>
+      </c>
+      <c r="C136" t="s">
+        <v>412</v>
+      </c>
+      <c r="D136" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
+        <v>414</v>
+      </c>
+      <c r="C137" t="s">
+        <v>415</v>
+      </c>
+      <c r="D137" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" t="s">
+        <v>417</v>
+      </c>
+      <c r="C138" t="s">
+        <v>418</v>
+      </c>
+      <c r="D138" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" t="s">
+        <v>420</v>
+      </c>
+      <c r="C139" t="s">
+        <v>421</v>
+      </c>
+      <c r="D139" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" t="s">
+        <v>423</v>
+      </c>
+      <c r="C140" t="s">
+        <v>424</v>
+      </c>
+      <c r="D140" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" t="s">
+        <v>426</v>
+      </c>
+      <c r="C141" t="s">
+        <v>427</v>
+      </c>
+      <c r="D141" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" t="s">
+        <v>429</v>
+      </c>
+      <c r="C142" t="s">
+        <v>430</v>
+      </c>
+      <c r="D142" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" t="s">
+        <v>432</v>
+      </c>
+      <c r="C143" t="s">
+        <v>433</v>
+      </c>
+      <c r="D143" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" t="s">
+        <v>435</v>
+      </c>
+      <c r="C144" t="s">
+        <v>436</v>
+      </c>
+      <c r="D144" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" t="s">
+        <v>438</v>
+      </c>
+      <c r="C145" t="s">
+        <v>439</v>
+      </c>
+      <c r="D145" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
+        <v>441</v>
+      </c>
+      <c r="C146" t="s">
+        <v>442</v>
+      </c>
+      <c r="D146" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
+        <v>444</v>
+      </c>
+      <c r="C147" t="s">
+        <v>445</v>
+      </c>
+      <c r="D147" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" t="s">
+        <v>447</v>
+      </c>
+      <c r="C148" t="s">
+        <v>448</v>
+      </c>
+      <c r="D148" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" t="s">
+        <v>449</v>
+      </c>
+      <c r="C149" t="s">
+        <v>450</v>
+      </c>
+      <c r="D149" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" t="s">
+        <v>452</v>
+      </c>
+      <c r="C150" t="s">
+        <v>453</v>
+      </c>
+      <c r="D150" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" t="s">
+        <v>455</v>
+      </c>
+      <c r="C151" t="s">
+        <v>456</v>
+      </c>
+      <c r="D151" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" t="s">
+        <v>458</v>
+      </c>
+      <c r="C152" t="s">
+        <v>459</v>
+      </c>
+      <c r="D152" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" t="s">
+        <v>460</v>
+      </c>
+      <c r="C153" t="s">
+        <v>461</v>
+      </c>
+      <c r="D153" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" t="s">
+        <v>463</v>
+      </c>
+      <c r="C154" t="s">
+        <v>464</v>
+      </c>
+      <c r="D154" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/nar2025web.xlsx
+++ b/nar2025web.xlsx
@@ -3088,7 +3088,7 @@
   <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A74" sqref="$A74:$XFD74"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
